--- a/analysis/output/Table2.xlsx
+++ b/analysis/output/Table2.xlsx
@@ -129,13 +129,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="0">
-        <v>0.54134090751917152</v>
+        <v>0.63585043042965428</v>
       </c>
       <c r="C4" s="0">
-        <v>0.57188243447005549</v>
+        <v>0.57498517285587669</v>
       </c>
       <c r="D4" s="0">
-        <v>0.79146339796906917</v>
+        <v>0.81615668783717144</v>
       </c>
     </row>
     <row r="5">

--- a/analysis/output/Table2.xlsx
+++ b/analysis/output/Table2.xlsx
@@ -147,6 +147,15 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="0">
+        <v>69</v>
+      </c>
+      <c r="C6" s="0">
+        <v>74</v>
+      </c>
+      <c r="D6" s="0">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">

--- a/analysis/output/Table2.xlsx
+++ b/analysis/output/Table2.xlsx
@@ -142,6 +142,15 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="0">
+        <v>175.01545242957903</v>
+      </c>
+      <c r="C5" s="0">
+        <v>87.980263366969282</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1523.5893161495212</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
